--- a/docs/hand_in_docs/2019-02-26_Student _Checklist_C_Document Review_TMP_01A1.xlsx
+++ b/docs/hand_in_docs/2019-02-26_Student _Checklist_C_Document Review_TMP_01A1.xlsx
@@ -5,18 +5,40 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e363922215a0e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEB\SOURCE\Masters\docs\hand_in_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FDEF05-8A15-43DF-B2CA-E2C3AF4F1B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D872DA-B3E0-4C4F-9759-E6043422196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist C-Document review" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,36 +1251,45 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1285,15 +1316,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1303,21 +1325,21 @@
   <dxfs count="51">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1363,6 +1385,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1388,6 +1420,96 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1493,11 +1615,141 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1558,236 +1810,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2047,6 +2069,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2338,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,18 +2445,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2385,18 +2471,18 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="94">
+      <c r="B3" s="94"/>
+      <c r="C3" s="97">
         <v>2589980</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="4"/>
       <c r="J3" s="31"/>
     </row>
@@ -2419,18 +2505,18 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="7"/>
       <c r="J5" s="31"/>
     </row>
@@ -2453,18 +2539,18 @@
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="95" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="7"/>
       <c r="J7" s="31"/>
     </row>
@@ -2495,64 +2581,64 @@
     </row>
     <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2721,7 +2807,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="39"/>
       <c r="I23" s="15" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="14"/>
@@ -2819,16 +2905,16 @@
     </row>
     <row r="28" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
       <c r="J28" s="31"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -3999,14 +4085,14 @@
     </row>
     <row r="100" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="78"/>
-      <c r="I100" s="79"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="79"/>
+      <c r="H100" s="79"/>
+      <c r="I100" s="80"/>
       <c r="J100" s="31"/>
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
@@ -4020,14 +4106,14 @@
     </row>
     <row r="101" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
-      <c r="B101" s="80"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="81"/>
-      <c r="H101" s="81"/>
-      <c r="I101" s="82"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="82"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="82"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="82"/>
+      <c r="H101" s="82"/>
+      <c r="I101" s="83"/>
       <c r="J101" s="31"/>
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
@@ -4041,14 +4127,14 @@
     </row>
     <row r="102" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="81"/>
-      <c r="F102" s="81"/>
-      <c r="G102" s="81"/>
-      <c r="H102" s="81"/>
-      <c r="I102" s="82"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="83"/>
       <c r="J102" s="31"/>
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
@@ -4062,14 +4148,14 @@
     </row>
     <row r="103" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
-      <c r="B103" s="80"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="H103" s="81"/>
-      <c r="I103" s="82"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="82"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="82"/>
+      <c r="I103" s="83"/>
       <c r="J103" s="31"/>
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
@@ -4083,14 +4169,14 @@
     </row>
     <row r="104" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
-      <c r="B104" s="80"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="H104" s="81"/>
-      <c r="I104" s="82"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="82"/>
+      <c r="H104" s="82"/>
+      <c r="I104" s="83"/>
       <c r="J104" s="31"/>
       <c r="K104" s="14"/>
       <c r="L104" s="14"/>
@@ -4104,14 +4190,14 @@
     </row>
     <row r="105" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
-      <c r="B105" s="80"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="81"/>
-      <c r="I105" s="82"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="83"/>
       <c r="J105" s="31"/>
       <c r="K105" s="14"/>
       <c r="L105" s="14"/>
@@ -4125,14 +4211,14 @@
     </row>
     <row r="106" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
-      <c r="B106" s="80"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="81"/>
-      <c r="I106" s="82"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="82"/>
+      <c r="H106" s="82"/>
+      <c r="I106" s="83"/>
       <c r="J106" s="31"/>
       <c r="K106" s="14"/>
       <c r="L106" s="14"/>
@@ -4146,14 +4232,14 @@
     </row>
     <row r="107" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
-      <c r="B107" s="80"/>
-      <c r="C107" s="81"/>
-      <c r="D107" s="81"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="81"/>
-      <c r="H107" s="81"/>
-      <c r="I107" s="82"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="83"/>
       <c r="J107" s="31"/>
       <c r="K107" s="14"/>
       <c r="L107" s="14"/>
@@ -4167,14 +4253,14 @@
     </row>
     <row r="108" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
-      <c r="B108" s="80"/>
-      <c r="C108" s="81"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="81"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="82"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
+      <c r="F108" s="82"/>
+      <c r="G108" s="82"/>
+      <c r="H108" s="82"/>
+      <c r="I108" s="83"/>
       <c r="J108" s="31"/>
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
@@ -4188,14 +4274,14 @@
     </row>
     <row r="109" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
-      <c r="B109" s="80"/>
-      <c r="C109" s="81"/>
-      <c r="D109" s="81"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="81"/>
-      <c r="H109" s="81"/>
-      <c r="I109" s="82"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="82"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="83"/>
       <c r="J109" s="31"/>
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
@@ -4209,14 +4295,14 @@
     </row>
     <row r="110" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
-      <c r="B110" s="80"/>
-      <c r="C110" s="81"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="81"/>
-      <c r="H110" s="81"/>
-      <c r="I110" s="82"/>
+      <c r="B110" s="81"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="83"/>
       <c r="J110" s="31"/>
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
@@ -4230,14 +4316,14 @@
     </row>
     <row r="111" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
-      <c r="B111" s="80"/>
-      <c r="C111" s="81"/>
-      <c r="D111" s="81"/>
-      <c r="E111" s="81"/>
-      <c r="F111" s="81"/>
-      <c r="G111" s="81"/>
-      <c r="H111" s="81"/>
-      <c r="I111" s="82"/>
+      <c r="B111" s="81"/>
+      <c r="C111" s="82"/>
+      <c r="D111" s="82"/>
+      <c r="E111" s="82"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="82"/>
+      <c r="H111" s="82"/>
+      <c r="I111" s="83"/>
       <c r="J111" s="31"/>
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
@@ -4251,14 +4337,14 @@
     </row>
     <row r="112" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
-      <c r="B112" s="80"/>
-      <c r="C112" s="81"/>
-      <c r="D112" s="81"/>
-      <c r="E112" s="81"/>
-      <c r="F112" s="81"/>
-      <c r="G112" s="81"/>
-      <c r="H112" s="81"/>
-      <c r="I112" s="82"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="83"/>
       <c r="J112" s="31"/>
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
@@ -4272,14 +4358,14 @@
     </row>
     <row r="113" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="21"/>
-      <c r="B113" s="83"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="84"/>
-      <c r="F113" s="84"/>
-      <c r="G113" s="84"/>
-      <c r="H113" s="84"/>
-      <c r="I113" s="85"/>
+      <c r="B113" s="84"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="86"/>
       <c r="J113" s="31"/>
       <c r="K113" s="14"/>
       <c r="L113" s="14"/>
@@ -4311,38 +4397,38 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="46"/>
-      <c r="B116" s="96" t="s">
+      <c r="B116" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C116" s="96"/>
-      <c r="D116" s="96"/>
-      <c r="E116" s="96"/>
-      <c r="F116" s="96"/>
-      <c r="G116" s="96"/>
-      <c r="H116" s="96"/>
-      <c r="I116" s="96"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="76"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="76"/>
       <c r="J116" s="45"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
-      <c r="B117" s="96"/>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
-      <c r="E117" s="96"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="96"/>
-      <c r="H117" s="96"/>
-      <c r="I117" s="96"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="76"/>
       <c r="J117" s="45"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
-      <c r="B118" s="95"/>
-      <c r="C118" s="95"/>
-      <c r="D118" s="95"/>
-      <c r="E118" s="95"/>
-      <c r="F118" s="95"/>
-      <c r="G118" s="95"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
       <c r="H118" s="39"/>
       <c r="I118" s="14"/>
       <c r="J118" s="45"/>
@@ -4358,7 +4444,9 @@
       <c r="F119" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G119" s="14"/>
+      <c r="G119" s="14" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="H119" s="39"/>
       <c r="I119" s="14"/>
       <c r="J119" s="45"/>
@@ -4370,9 +4458,9 @@
       <c r="D120" s="44"/>
       <c r="E120" s="44"/>
       <c r="F120" s="44"/>
-      <c r="G120" s="97"/>
-      <c r="H120" s="97"/>
-      <c r="I120" s="97"/>
+      <c r="G120" s="87"/>
+      <c r="H120" s="87"/>
+      <c r="I120" s="87"/>
       <c r="J120" s="45"/>
     </row>
     <row r="121" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4392,14 +4480,14 @@
     </row>
     <row r="122" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="21"/>
-      <c r="B122" s="77"/>
-      <c r="C122" s="78"/>
-      <c r="D122" s="78"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="78"/>
-      <c r="G122" s="78"/>
-      <c r="H122" s="78"/>
-      <c r="I122" s="79"/>
+      <c r="B122" s="78"/>
+      <c r="C122" s="79"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="79"/>
+      <c r="H122" s="79"/>
+      <c r="I122" s="80"/>
       <c r="J122" s="31"/>
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
@@ -4413,14 +4501,14 @@
     </row>
     <row r="123" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
-      <c r="B123" s="80"/>
-      <c r="C123" s="81"/>
-      <c r="D123" s="81"/>
-      <c r="E123" s="81"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="81"/>
-      <c r="I123" s="82"/>
+      <c r="B123" s="81"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="82"/>
+      <c r="I123" s="83"/>
       <c r="J123" s="31"/>
       <c r="K123" s="14"/>
       <c r="L123" s="14"/>
@@ -4434,14 +4522,14 @@
     </row>
     <row r="124" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
-      <c r="B124" s="80"/>
-      <c r="C124" s="81"/>
-      <c r="D124" s="81"/>
-      <c r="E124" s="81"/>
-      <c r="F124" s="81"/>
-      <c r="G124" s="81"/>
-      <c r="H124" s="81"/>
-      <c r="I124" s="82"/>
+      <c r="B124" s="81"/>
+      <c r="C124" s="82"/>
+      <c r="D124" s="82"/>
+      <c r="E124" s="82"/>
+      <c r="F124" s="82"/>
+      <c r="G124" s="82"/>
+      <c r="H124" s="82"/>
+      <c r="I124" s="83"/>
       <c r="J124" s="31"/>
       <c r="K124" s="14"/>
       <c r="L124" s="14"/>
@@ -4455,14 +4543,14 @@
     </row>
     <row r="125" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
-      <c r="B125" s="80"/>
-      <c r="C125" s="81"/>
-      <c r="D125" s="81"/>
-      <c r="E125" s="81"/>
-      <c r="F125" s="81"/>
-      <c r="G125" s="81"/>
-      <c r="H125" s="81"/>
-      <c r="I125" s="82"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="82"/>
+      <c r="H125" s="82"/>
+      <c r="I125" s="83"/>
       <c r="J125" s="31"/>
       <c r="K125" s="14"/>
       <c r="L125" s="14"/>
@@ -4476,14 +4564,14 @@
     </row>
     <row r="126" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
-      <c r="B126" s="80"/>
-      <c r="C126" s="81"/>
-      <c r="D126" s="81"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="81"/>
-      <c r="H126" s="81"/>
-      <c r="I126" s="82"/>
+      <c r="B126" s="81"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="82"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="82"/>
+      <c r="H126" s="82"/>
+      <c r="I126" s="83"/>
       <c r="J126" s="31"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
@@ -4497,14 +4585,14 @@
     </row>
     <row r="127" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
-      <c r="B127" s="80"/>
-      <c r="C127" s="81"/>
-      <c r="D127" s="81"/>
-      <c r="E127" s="81"/>
-      <c r="F127" s="81"/>
-      <c r="G127" s="81"/>
-      <c r="H127" s="81"/>
-      <c r="I127" s="82"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="82"/>
+      <c r="D127" s="82"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="82"/>
+      <c r="I127" s="83"/>
       <c r="J127" s="31"/>
       <c r="K127" s="14"/>
       <c r="L127" s="14"/>
@@ -4518,14 +4606,14 @@
     </row>
     <row r="128" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
-      <c r="B128" s="80"/>
-      <c r="C128" s="81"/>
-      <c r="D128" s="81"/>
-      <c r="E128" s="81"/>
-      <c r="F128" s="81"/>
-      <c r="G128" s="81"/>
-      <c r="H128" s="81"/>
-      <c r="I128" s="82"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="82"/>
+      <c r="D128" s="82"/>
+      <c r="E128" s="82"/>
+      <c r="F128" s="82"/>
+      <c r="G128" s="82"/>
+      <c r="H128" s="82"/>
+      <c r="I128" s="83"/>
       <c r="J128" s="31"/>
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
@@ -4539,14 +4627,14 @@
     </row>
     <row r="129" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="21"/>
-      <c r="B129" s="80"/>
-      <c r="C129" s="81"/>
-      <c r="D129" s="81"/>
-      <c r="E129" s="81"/>
-      <c r="F129" s="81"/>
-      <c r="G129" s="81"/>
-      <c r="H129" s="81"/>
-      <c r="I129" s="82"/>
+      <c r="B129" s="81"/>
+      <c r="C129" s="82"/>
+      <c r="D129" s="82"/>
+      <c r="E129" s="82"/>
+      <c r="F129" s="82"/>
+      <c r="G129" s="82"/>
+      <c r="H129" s="82"/>
+      <c r="I129" s="83"/>
       <c r="J129" s="31"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14"/>
@@ -4560,14 +4648,14 @@
     </row>
     <row r="130" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
-      <c r="B130" s="80"/>
-      <c r="C130" s="81"/>
-      <c r="D130" s="81"/>
-      <c r="E130" s="81"/>
-      <c r="F130" s="81"/>
-      <c r="G130" s="81"/>
-      <c r="H130" s="81"/>
-      <c r="I130" s="82"/>
+      <c r="B130" s="81"/>
+      <c r="C130" s="82"/>
+      <c r="D130" s="82"/>
+      <c r="E130" s="82"/>
+      <c r="F130" s="82"/>
+      <c r="G130" s="82"/>
+      <c r="H130" s="82"/>
+      <c r="I130" s="83"/>
       <c r="J130" s="31"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14"/>
@@ -4581,14 +4669,14 @@
     </row>
     <row r="131" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="81"/>
-      <c r="D131" s="81"/>
-      <c r="E131" s="81"/>
-      <c r="F131" s="81"/>
-      <c r="G131" s="81"/>
-      <c r="H131" s="81"/>
-      <c r="I131" s="82"/>
+      <c r="B131" s="81"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="82"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="82"/>
+      <c r="H131" s="82"/>
+      <c r="I131" s="83"/>
       <c r="J131" s="31"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14"/>
@@ -4602,14 +4690,14 @@
     </row>
     <row r="132" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="21"/>
-      <c r="B132" s="80"/>
-      <c r="C132" s="81"/>
-      <c r="D132" s="81"/>
-      <c r="E132" s="81"/>
-      <c r="F132" s="81"/>
-      <c r="G132" s="81"/>
-      <c r="H132" s="81"/>
-      <c r="I132" s="82"/>
+      <c r="B132" s="81"/>
+      <c r="C132" s="82"/>
+      <c r="D132" s="82"/>
+      <c r="E132" s="82"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="82"/>
+      <c r="I132" s="83"/>
       <c r="J132" s="31"/>
       <c r="K132" s="14"/>
       <c r="L132" s="14"/>
@@ -4623,14 +4711,14 @@
     </row>
     <row r="133" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="81"/>
-      <c r="D133" s="81"/>
-      <c r="E133" s="81"/>
-      <c r="F133" s="81"/>
-      <c r="G133" s="81"/>
-      <c r="H133" s="81"/>
-      <c r="I133" s="82"/>
+      <c r="B133" s="81"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="82"/>
+      <c r="E133" s="82"/>
+      <c r="F133" s="82"/>
+      <c r="G133" s="82"/>
+      <c r="H133" s="82"/>
+      <c r="I133" s="83"/>
       <c r="J133" s="31"/>
       <c r="K133" s="14"/>
       <c r="L133" s="14"/>
@@ -4644,14 +4732,14 @@
     </row>
     <row r="134" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
-      <c r="B134" s="80"/>
-      <c r="C134" s="81"/>
-      <c r="D134" s="81"/>
-      <c r="E134" s="81"/>
-      <c r="F134" s="81"/>
-      <c r="G134" s="81"/>
-      <c r="H134" s="81"/>
-      <c r="I134" s="82"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="82"/>
+      <c r="D134" s="82"/>
+      <c r="E134" s="82"/>
+      <c r="F134" s="82"/>
+      <c r="G134" s="82"/>
+      <c r="H134" s="82"/>
+      <c r="I134" s="83"/>
       <c r="J134" s="31"/>
       <c r="K134" s="14"/>
       <c r="L134" s="14"/>
@@ -4665,14 +4753,14 @@
     </row>
     <row r="135" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="21"/>
-      <c r="B135" s="83"/>
-      <c r="C135" s="84"/>
-      <c r="D135" s="84"/>
-      <c r="E135" s="84"/>
-      <c r="F135" s="84"/>
-      <c r="G135" s="84"/>
-      <c r="H135" s="84"/>
-      <c r="I135" s="85"/>
+      <c r="B135" s="84"/>
+      <c r="C135" s="85"/>
+      <c r="D135" s="85"/>
+      <c r="E135" s="85"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="85"/>
+      <c r="H135" s="85"/>
+      <c r="I135" s="86"/>
       <c r="J135" s="31"/>
       <c r="K135" s="14"/>
       <c r="L135" s="14"/>
@@ -4704,38 +4792,38 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="46"/>
-      <c r="B138" s="96" t="s">
+      <c r="B138" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C138" s="96"/>
-      <c r="D138" s="96"/>
-      <c r="E138" s="96"/>
-      <c r="F138" s="96"/>
-      <c r="G138" s="96"/>
-      <c r="H138" s="96"/>
-      <c r="I138" s="96"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="76"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="76"/>
+      <c r="H138" s="76"/>
+      <c r="I138" s="76"/>
       <c r="J138" s="45"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
-      <c r="B139" s="96"/>
-      <c r="C139" s="96"/>
-      <c r="D139" s="96"/>
-      <c r="E139" s="96"/>
-      <c r="F139" s="96"/>
-      <c r="G139" s="96"/>
-      <c r="H139" s="96"/>
-      <c r="I139" s="96"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
       <c r="J139" s="45"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
-      <c r="B140" s="95"/>
-      <c r="C140" s="95"/>
-      <c r="D140" s="95"/>
-      <c r="E140" s="95"/>
-      <c r="F140" s="95"/>
-      <c r="G140" s="95"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="77"/>
       <c r="H140" s="39"/>
       <c r="I140" s="14"/>
       <c r="J140" s="45"/>
@@ -4751,7 +4839,9 @@
       <c r="F141" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G141" s="14"/>
+      <c r="G141" s="14" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="H141" s="39"/>
       <c r="I141" s="14"/>
       <c r="J141" s="45"/>
@@ -4774,12 +4864,6 @@
     <protectedRange sqref="G120 B117:B118 B139:B140" name="Quality audit check list editable range_1"/>
   </protectedRanges>
   <mergeCells count="16">
-    <mergeCell ref="B138:I139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B122:I135"/>
-    <mergeCell ref="B116:I117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="G120:I120"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B100:I113"/>
     <mergeCell ref="B10:I14"/>
@@ -4790,6 +4874,12 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C5:H5"/>
+    <mergeCell ref="B138:I139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B122:I135"/>
+    <mergeCell ref="B116:I117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="G120:I120"/>
   </mergeCells>
   <conditionalFormatting sqref="I18:I26">
     <cfRule type="containsText" dxfId="50" priority="306" operator="containsText" text="No">
@@ -4800,27 +4890,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="48" priority="75" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="48" priority="76" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="75" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="76" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="46" priority="71" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="46" priority="72" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="71" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="72" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="44" priority="59" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="44" priority="60" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="59" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="60" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I36">
@@ -4840,19 +4930,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="38" priority="47" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="38" priority="48" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="48" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="38" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
@@ -4864,19 +4954,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
@@ -4920,19 +5010,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="containsText" dxfId="18" priority="51" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="52" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="51" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="52" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
@@ -4944,28 +5034,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="10" priority="77" operator="greaterThan">
-      <formula>0.4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="78" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="78" operator="lessThanOrEqual">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="79" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="80" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="80" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="81" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="7" priority="81" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",I90)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="77" operator="greaterThan">
+      <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
@@ -4985,11 +5075,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I97)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",I97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
